--- a/_plan.xlsx
+++ b/_plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
   <si>
     <t>Аутентификация</t>
   </si>
@@ -218,13 +218,46 @@
   </si>
   <si>
     <t>пагинация выборки тегов (общий метод вывода ленты?)</t>
+  </si>
+  <si>
+    <t>Добавить в табл users поле uniq</t>
+  </si>
+  <si>
+    <t>Добавить табл log</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>uniq</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>fromurl</t>
+  </si>
+  <si>
+    <t>разобраться в каком месте выгодней ставить db-&gt;connect</t>
+  </si>
+  <si>
+    <t>теги при создании и редактировании поста</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +284,14 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -286,13 +327,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -594,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L61"/>
+  <dimension ref="B1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,12 +649,12 @@
     <col min="3" max="3" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>52</v>
       </c>
@@ -627,8 +670,11 @@
       <c r="L3" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
@@ -638,7 +684,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>0</v>
       </c>
@@ -657,8 +703,11 @@
       <c r="L5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
         <v>43</v>
       </c>
@@ -677,8 +726,11 @@
       <c r="L6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>44</v>
       </c>
@@ -694,8 +746,11 @@
       <c r="L7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>45</v>
       </c>
@@ -708,8 +763,11 @@
       <c r="J8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
@@ -719,8 +777,14 @@
       <c r="I9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
@@ -730,16 +794,22 @@
       <c r="I10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
@@ -747,7 +817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
         <v>46</v>
       </c>
@@ -755,7 +825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
         <v>48</v>
       </c>
@@ -763,7 +833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
         <v>49</v>
       </c>
@@ -771,7 +841,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
         <v>50</v>
       </c>
@@ -788,8 +858,11 @@
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+      <c r="C18" s="7" t="s">
         <v>57</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
@@ -801,161 +874,187 @@
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>65</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="D23" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>1</v>
+      <c r="C26" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>54</v>
+      <c r="C27" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>2</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C47" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
         <v>42</v>
       </c>
     </row>

--- a/_plan.xlsx
+++ b/_plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
   <si>
     <t>Аутентификация</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Конф файл с паролем</t>
   </si>
   <si>
-    <t>Контроль безопасности POSTов</t>
-  </si>
-  <si>
     <t>класс  mysql, connect</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>перенести connect db из login  в auth</t>
-  </si>
-  <si>
     <t>перенести echo из функций вспомогательных классов</t>
   </si>
   <si>
@@ -220,9 +214,6 @@
     <t>пагинация выборки тегов (общий метод вывода ленты?)</t>
   </si>
   <si>
-    <t>Добавить в табл users поле uniq</t>
-  </si>
-  <si>
     <t>Добавить табл log</t>
   </si>
   <si>
@@ -251,6 +242,21 @@
   </si>
   <si>
     <t>теги при создании и редактировании поста</t>
+  </si>
+  <si>
+    <t>Контроль безопасности POST, GET, COOKIE, SERVER</t>
+  </si>
+  <si>
+    <t>админская панель с логами</t>
+  </si>
+  <si>
+    <t>скорость SQL, оптимизация</t>
+  </si>
+  <si>
+    <t>комментарии к коду</t>
+  </si>
+  <si>
+    <t>url</t>
   </si>
 </sst>
 </file>
@@ -637,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M65"/>
+  <dimension ref="B1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +662,7 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
@@ -665,13 +671,13 @@
         <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -709,7 +715,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>24</v>
@@ -721,18 +727,18 @@
         <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>24</v>
@@ -744,15 +750,15 @@
         <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>24</v>
@@ -761,15 +767,15 @@
         <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>24</v>
@@ -778,10 +784,10 @@
         <v>17</v>
       </c>
       <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" t="s">
         <v>72</v>
-      </c>
-      <c r="M9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -792,26 +798,29 @@
         <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>24</v>
@@ -819,7 +828,7 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>24</v>
@@ -827,7 +836,7 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>24</v>
@@ -835,7 +844,7 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>24</v>
@@ -843,7 +852,7 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>24</v>
@@ -851,7 +860,7 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>24</v>
@@ -859,7 +868,7 @@
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>24</v>
@@ -867,7 +876,7 @@
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>24</v>
@@ -875,190 +884,305 @@
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="4" t="s">
-        <v>69</v>
+      <c r="D22" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="7" t="s">
-        <v>36</v>
+      <c r="C25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="4" t="s">
-        <v>77</v>
+      <c r="C26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="4" t="s">
-        <v>78</v>
+      <c r="C27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>39</v>
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>54</v>
+      <c r="C31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D33">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="D40">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>2</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C60" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="C27:D45">
+    <sortCondition ref="D29:D47"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/_plan.xlsx
+++ b/_plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
   <si>
     <t>Аутентификация</t>
   </si>
@@ -100,9 +100,6 @@
     <t>класс  mysql, disconnect</t>
   </si>
   <si>
-    <t>перенести пар подкл в создан объекта DB</t>
-  </si>
-  <si>
     <t>добавить время во все куки</t>
   </si>
   <si>
@@ -257,13 +254,22 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Jquery красивости</t>
+  </si>
+  <si>
+    <t>Аякс красивости</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,13 +281,6 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -333,15 +332,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -643,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M78"/>
+  <dimension ref="B1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,47 +653,56 @@
     <col min="3" max="3" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I1" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
+      <c r="K3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -709,243 +716,249 @@
       <c r="L5" t="s">
         <v>11</v>
       </c>
-      <c r="M5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" t="s">
         <v>18</v>
       </c>
-      <c r="K6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="L8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I10" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="5" t="s">
+      <c r="D12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D28">
-        <v>4</v>
+      <c r="D28" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
@@ -958,7 +971,7 @@
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30">
         <v>10</v>
@@ -966,15 +979,15 @@
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31">
-        <v>50</v>
+        <v>73</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D32">
         <v>57</v>
@@ -982,7 +995,7 @@
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D33">
         <v>58</v>
@@ -990,7 +1003,7 @@
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34">
         <v>60</v>
@@ -998,7 +1011,7 @@
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35">
         <v>61</v>
@@ -1006,82 +1019,82 @@
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D36">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D37">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D38">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39">
-        <v>80</v>
+      <c r="C39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D41">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D44">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.25">
@@ -1089,43 +1102,40 @@
         <v>78</v>
       </c>
       <c r="D46">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47">
         <v>102</v>
       </c>
     </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>2</v>
-      </c>
       <c r="C60" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -1133,35 +1143,35 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>36</v>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>7</v>
-      </c>
       <c r="C70" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>21</v>
-      </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
@@ -1171,12 +1181,7 @@
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/_plan.xlsx
+++ b/_plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
   <si>
     <t>Аутентификация</t>
   </si>
@@ -263,13 +263,28 @@
   </si>
   <si>
     <t>Аякс красивости</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>?совместить классы пост и тег,коммент</t>
+  </si>
+  <si>
+    <t>переделать get на post для delimage</t>
+  </si>
+  <si>
+    <t>Изображения, выдрать имя файла из урла; удаление файла</t>
+  </si>
+  <si>
+    <t>filename</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +312,13 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -332,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -340,6 +362,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -641,24 +664,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L77"/>
+  <dimension ref="B1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>49</v>
       </c>
@@ -680,8 +704,11 @@
       <c r="L3" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
@@ -691,7 +718,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
@@ -716,8 +743,11 @@
       <c r="L5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
@@ -742,8 +772,11 @@
       <c r="L6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
@@ -765,8 +798,11 @@
       <c r="L7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
@@ -786,7 +822,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>53</v>
       </c>
@@ -803,7 +839,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
@@ -817,7 +853,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
@@ -831,7 +867,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
@@ -839,7 +875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
         <v>43</v>
       </c>
@@ -847,7 +883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
         <v>45</v>
       </c>
@@ -855,7 +891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
         <v>46</v>
       </c>
@@ -863,7 +899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
         <v>47</v>
       </c>
@@ -962,225 +998,249 @@
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D29">
-        <v>5</v>
+      <c r="D29" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30">
-        <v>10</v>
+      <c r="C30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>82</v>
+      <c r="C32" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="D32">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D33">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34">
-        <v>60</v>
+      <c r="C34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="D35">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D36">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D37">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D38">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>24</v>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39">
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D40">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D41">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42">
-        <v>98</v>
+      <c r="C42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D44">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D45">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>78</v>
       </c>
-      <c r="D46">
+      <c r="D49">
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>2</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C62" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>7</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C72" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>21</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C76" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
         <v>39</v>
       </c>
     </row>

--- a/_plan.xlsx
+++ b/_plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="90">
   <si>
     <t>Аутентификация</t>
   </si>
@@ -268,9 +268,6 @@
     <t>images</t>
   </si>
   <si>
-    <t>?совместить классы пост и тег,коммент</t>
-  </si>
-  <si>
     <t>переделать get на post для delimage</t>
   </si>
   <si>
@@ -278,13 +275,22 @@
   </si>
   <si>
     <t>filename</t>
+  </si>
+  <si>
+    <t>класс комментарии переделать в интерфейс к посту</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Контроль безопасности длина полей ввода</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,13 +318,6 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -354,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -362,7 +361,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -664,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M80"/>
+  <dimension ref="B1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +771,7 @@
         <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -874,6 +872,9 @@
       <c r="D12" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
@@ -1007,7 +1008,7 @@
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>24</v>
@@ -1015,26 +1016,26 @@
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32">
-        <v>8</v>
+      <c r="C32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D33">
-        <v>10</v>
+      <c r="D33" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
@@ -1062,18 +1063,18 @@
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="4">
         <v>60</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="4">
         <v>61</v>
       </c>
     </row>
@@ -1086,161 +1087,169 @@
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D40">
-        <v>70</v>
+      <c r="D40" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D41">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>90</v>
+      <c r="D43" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D45">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D47">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D48">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
         <v>78</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>2</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>7</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>21</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
         <v>39</v>
       </c>
     </row>

--- a/_plan.xlsx
+++ b/_plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="91">
   <si>
     <t>Аутентификация</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>Контроль безопасности длина полей ввода</t>
+  </si>
+  <si>
+    <t>pages</t>
   </si>
 </sst>
 </file>
@@ -662,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M81"/>
+  <dimension ref="B1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,12 +678,12 @@
     <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>49</v>
       </c>
@@ -705,8 +708,11 @@
       <c r="M3" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
@@ -716,7 +722,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
@@ -744,8 +750,11 @@
       <c r="M5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
@@ -773,8 +782,11 @@
       <c r="M6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
@@ -799,8 +811,11 @@
       <c r="M7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
@@ -820,7 +835,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>53</v>
       </c>
@@ -837,7 +852,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
@@ -851,7 +866,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
@@ -865,7 +880,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
@@ -876,7 +891,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
         <v>43</v>
       </c>
@@ -884,7 +899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
         <v>45</v>
       </c>
@@ -892,7 +907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
         <v>46</v>
       </c>
@@ -900,7 +915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
         <v>47</v>
       </c>
@@ -1047,19 +1062,19 @@
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D35">
-        <v>57</v>
+      <c r="D35" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D36">
-        <v>58</v>
+      <c r="D36" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
@@ -1127,27 +1142,27 @@
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D45">
-        <v>95</v>
+      <c r="D45" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D46">
-        <v>98</v>
+      <c r="D46" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D47">
-        <v>99</v>
+      <c r="D47" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.25">
@@ -1159,19 +1174,19 @@
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D49">
-        <v>101</v>
+      <c r="D49" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D50">
-        <v>102</v>
+      <c r="D50" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">

--- a/_plan.xlsx
+++ b/_plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="112">
   <si>
     <t>Аутентификация</t>
   </si>
@@ -287,13 +287,76 @@
   </si>
   <si>
     <t>pages</t>
+  </si>
+  <si>
+    <t>Исправление ошибок, доработки</t>
+  </si>
+  <si>
+    <t>Добавить в config.php автоматическое определение ROOT и DOMAIN</t>
+  </si>
+  <si>
+    <t>Изучить $_SERVER</t>
+  </si>
+  <si>
+    <t>Использовать mod_rewrite для скрытия /controller/ в URI</t>
+  </si>
+  <si>
+    <t>Использовать рекурсивную обработку строк в ф-ции healString (для вложенных массивов)</t>
+  </si>
+  <si>
+    <t>Пагинация на PHP</t>
+  </si>
+  <si>
+    <t>Пагинация на JS</t>
+  </si>
+  <si>
+    <t>Пагинация на JQ</t>
+  </si>
+  <si>
+    <t>Ошибка1 - warning getimagesize()</t>
+  </si>
+  <si>
+    <t>Ошибка2 - notice udefined var filenames in edit.php:71</t>
+  </si>
+  <si>
+    <t>Ошибка3 - warning invalid argument supplied for foreach in db.php:329</t>
+  </si>
+  <si>
+    <t>Ошибка4 - cannot modify header information, already sent in edit.php:78</t>
+  </si>
+  <si>
+    <t>Сделать кнопку как в Хабре на JQ</t>
+  </si>
+  <si>
+    <t>Создание log-файла с полями дата, ип,  скрипт, ошибка</t>
+  </si>
+  <si>
+    <t>Обработка и оповещение об ошибке: редирект на индекс и попап</t>
+  </si>
+  <si>
+    <t>В install.php смена прав и удаление файлов автоматически (проверить ОС)</t>
+  </si>
+  <si>
+    <t>проблема: при переадресации теряются заголовки - содержимое POST</t>
+  </si>
+  <si>
+    <t>+ добавлена инициализация переменной</t>
+  </si>
+  <si>
+    <t>+ добавлены условия при пустых значениях</t>
+  </si>
+  <si>
+    <t>- не удалось воспроизвести</t>
+  </si>
+  <si>
+    <t>Каждый класс в отдельный файл.Лоадер для классов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +384,15 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -356,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -364,6 +436,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -665,69 +747,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N81"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>49</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="K3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="N3" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -744,527 +850,622 @@
       <c r="K5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="B27" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="4">
         <v>60</v>
       </c>
-      <c r="K6" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>86</v>
-      </c>
-      <c r="N6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="4">
         <v>61</v>
       </c>
-      <c r="K7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="4" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="4" t="s">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="4">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>21</v>
-      </c>
-      <c r="C77" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>39</v>
       </c>
     </row>

--- a/_plan.xlsx
+++ b/_plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="112">
   <si>
     <t>Аутентификация</t>
   </si>
@@ -750,7 +750,7 @@
   <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,7 +887,9 @@
       <c r="A7" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
@@ -914,7 +916,9 @@
       <c r="A8" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>

--- a/_plan.xlsx
+++ b/_plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="112">
   <si>
     <t>Аутентификация</t>
   </si>
@@ -750,7 +750,7 @@
   <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,15 +992,24 @@
       <c r="A13" t="s">
         <v>103</v>
       </c>
+      <c r="B13" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>104</v>
       </c>
+      <c r="B14" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>105</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">

--- a/_plan.xlsx
+++ b/_plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="112">
   <si>
     <t>Аутентификация</t>
   </si>
@@ -750,7 +750,7 @@
   <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,6 +1016,9 @@
       <c r="A16" t="s">
         <v>106</v>
       </c>
+      <c r="B16" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">

--- a/_plan.xlsx
+++ b/_plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="112">
   <si>
     <t>Аутентификация</t>
   </si>
@@ -750,7 +750,7 @@
   <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,6 +1024,9 @@
       <c r="A17" t="s">
         <v>111</v>
       </c>
+      <c r="B17" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
